--- a/数据库逻辑结构设计.xlsx
+++ b/数据库逻辑结构设计.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="112">
   <si>
     <t>字段名</t>
   </si>
@@ -346,6 +346,15 @@
   </si>
   <si>
     <t>发布动态时间</t>
+  </si>
+  <si>
+    <t>userHide</t>
+  </si>
+  <si>
+    <t>用户是否隐藏个人信息，1为是，0为否</t>
+  </si>
+  <si>
+    <t>默认为0</t>
   </si>
 </sst>
 </file>
@@ -524,15 +533,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -549,6 +549,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -831,10 +840,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D108"/>
+  <dimension ref="A1:D109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="C107" sqref="C107"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="C91" sqref="C91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -842,1059 +851,1091 @@
     <col min="1" max="1" width="33.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="30.85546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="44.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="26.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="43.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="5"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="11"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="7" t="s">
+      <c r="B4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="5" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="8" t="s">
+      <c r="C5" s="4"/>
+      <c r="D5" s="5" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="8" t="s">
+      <c r="C6" s="4"/>
+      <c r="D6" s="5" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="8" t="s">
+      <c r="C7" s="4"/>
+      <c r="D7" s="5" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="8" t="s">
+      <c r="B8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="8" t="s">
+      <c r="B9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="9" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="11" t="s">
+      <c r="B10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
     </row>
-    <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="5"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="11"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B16" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C16" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D16" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="7" t="s">
+      <c r="B17" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D17" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B18" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="8" t="s">
+      <c r="C18" s="4"/>
+      <c r="D18" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B19" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="8" t="s">
+      <c r="C19" s="4"/>
+      <c r="D19" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B20" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="8" t="s">
+      <c r="C20" s="4"/>
+      <c r="D20" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B21" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="7"/>
-      <c r="D20" s="8" t="s">
+      <c r="C21" s="4"/>
+      <c r="D21" s="5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B22" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="8" t="s">
+      <c r="C22" s="4"/>
+      <c r="D22" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B23" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="7"/>
-      <c r="D22" s="8" t="s">
+      <c r="C23" s="4"/>
+      <c r="D23" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B23" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C23" s="7"/>
-      <c r="D23" s="8" t="s">
+      <c r="B24" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D24" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="9" t="s">
+    <row r="25" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B25" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="10"/>
-      <c r="D24" s="11" t="s">
+      <c r="C25" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="D25" s="8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
     </row>
-    <row r="27" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="28" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+    </row>
+    <row r="28" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="5"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="s">
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="11"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B30" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C30" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D29" s="8" t="s">
+      <c r="D30" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="6" t="s">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B30" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C30" s="7" t="s">
+      <c r="B31" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D30" s="8" t="s">
+      <c r="D31" s="5" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="6" t="s">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B32" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="7"/>
-      <c r="D31" s="8" t="s">
+      <c r="C32" s="4"/>
+      <c r="D32" s="5" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="6" t="s">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B33" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C32" s="7"/>
-      <c r="D32" s="8" t="s">
+      <c r="C33" s="4"/>
+      <c r="D33" s="5" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="6" t="s">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B34" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C33" s="7"/>
-      <c r="D33" s="8" t="s">
+      <c r="C34" s="4"/>
+      <c r="D34" s="5" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="6" t="s">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B35" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C34" s="7"/>
-      <c r="D34" s="8" t="s">
+      <c r="C35" s="4"/>
+      <c r="D35" s="5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="6" t="s">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B36" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C35" s="7"/>
-      <c r="D35" s="8" t="s">
+      <c r="C36" s="4"/>
+      <c r="D36" s="5" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="6" t="s">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B37" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C36" s="7"/>
-      <c r="D36" s="8" t="s">
+      <c r="C37" s="4"/>
+      <c r="D37" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="6" t="s">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B37" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C37" s="7"/>
-      <c r="D37" s="8" t="s">
+      <c r="B38" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D38" s="5" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="9" t="s">
+    <row r="39" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B38" s="10" t="s">
+      <c r="B39" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C38" s="10"/>
-      <c r="D38" s="11" t="s">
+      <c r="C39" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="D39" s="8" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
     </row>
-    <row r="41" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="42" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+    </row>
+    <row r="42" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="43" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="5"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="6" t="s">
+      <c r="B43" s="10"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="11"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="B44" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C43" s="7" t="s">
+      <c r="C44" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D43" s="8" t="s">
+      <c r="D44" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="6" t="s">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B44" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C44" s="7" t="s">
+      <c r="B45" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C45" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D44" s="8" t="s">
+      <c r="D45" s="5" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="6" t="s">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="B46" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C45" s="7"/>
-      <c r="D45" s="8" t="s">
+      <c r="C46" s="4"/>
+      <c r="D46" s="5" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="6" t="s">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B46" s="7" t="s">
+      <c r="B47" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C46" s="7"/>
-      <c r="D46" s="8" t="s">
+      <c r="C47" s="4"/>
+      <c r="D47" s="5" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="6" t="s">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B47" s="7" t="s">
+      <c r="B48" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C47" s="7"/>
-      <c r="D47" s="8" t="s">
+      <c r="C48" s="4"/>
+      <c r="D48" s="5" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="6" t="s">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B48" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C48" s="7" t="s">
+      <c r="B49" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C49" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="D48" s="8" t="s">
+      <c r="D49" s="5" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="6" t="s">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B49" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C49" s="7" t="s">
+      <c r="B50" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C50" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="D49" s="8" t="s">
+      <c r="D50" s="5" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="9" t="s">
+    <row r="51" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="B50" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C50" s="10"/>
-      <c r="D50" s="11" t="s">
+      <c r="B51" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="D51" s="8" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="2"/>
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
     </row>
-    <row r="53" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="54" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="3" t="s">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="2"/>
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+    </row>
+    <row r="54" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="55" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="B54" s="4"/>
-      <c r="C54" s="4"/>
-      <c r="D54" s="5"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="6" t="s">
+      <c r="B55" s="10"/>
+      <c r="C55" s="10"/>
+      <c r="D55" s="11"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B55" s="7" t="s">
+      <c r="B56" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C55" s="7" t="s">
+      <c r="C56" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D55" s="8" t="s">
+      <c r="D56" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="6" t="s">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B56" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C56" s="7" t="s">
+      <c r="B57" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C57" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D56" s="8" t="s">
+      <c r="D57" s="5" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="6" t="s">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B57" s="7" t="s">
+      <c r="B58" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C57" s="7"/>
-      <c r="D57" s="8" t="s">
+      <c r="C58" s="4"/>
+      <c r="D58" s="5" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="6" t="s">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B58" s="7" t="s">
+      <c r="B59" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C58" s="7"/>
-      <c r="D58" s="8" t="s">
+      <c r="C59" s="4"/>
+      <c r="D59" s="5" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="6" t="s">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B59" s="7" t="s">
+      <c r="B60" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C59" s="7"/>
-      <c r="D59" s="8" t="s">
+      <c r="C60" s="4"/>
+      <c r="D60" s="5" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="6" t="s">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B60" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C60" s="7" t="s">
+      <c r="B61" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C61" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="D60" s="8" t="s">
+      <c r="D61" s="5" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="6" t="s">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B61" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C61" s="7" t="s">
+      <c r="B62" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C62" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="D61" s="8" t="s">
+      <c r="D62" s="5" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="9" t="s">
+    <row r="63" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="B62" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C62" s="10"/>
-      <c r="D62" s="11" t="s">
+      <c r="B63" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="D63" s="8" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="65" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="66" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="3" t="s">
+    <row r="64" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="66" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="67" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="B66" s="4"/>
-      <c r="C66" s="4"/>
-      <c r="D66" s="5"/>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="6" t="s">
+      <c r="B67" s="10"/>
+      <c r="C67" s="10"/>
+      <c r="D67" s="11"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B67" s="7" t="s">
+      <c r="B68" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C67" s="7" t="s">
+      <c r="C68" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D67" s="8" t="s">
+      <c r="D68" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="6" t="s">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B68" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C68" s="7" t="s">
+      <c r="B69" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C69" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D68" s="8" t="s">
+      <c r="D69" s="5" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="6" t="s">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B69" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C69" s="7" t="s">
+      <c r="B70" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C70" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="D69" s="8" t="s">
+      <c r="D70" s="5" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="6" t="s">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B70" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C70" s="7" t="s">
+      <c r="B71" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C71" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="D70" s="8" t="s">
+      <c r="D71" s="5" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="9" t="s">
+    <row r="72" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="B71" s="10" t="s">
+      <c r="B72" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C71" s="10"/>
-      <c r="D71" s="11" t="s">
+      <c r="C72" s="7"/>
+      <c r="D72" s="8" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="74" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="75" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="3" t="s">
+    <row r="73" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="75" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="76" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="B75" s="4"/>
-      <c r="C75" s="4"/>
-      <c r="D75" s="5"/>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="6" t="s">
+      <c r="B76" s="10"/>
+      <c r="C76" s="10"/>
+      <c r="D76" s="11"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B76" s="7" t="s">
+      <c r="B77" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C76" s="7" t="s">
+      <c r="C77" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D76" s="8" t="s">
+      <c r="D77" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="6" t="s">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B77" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C77" s="7" t="s">
+      <c r="B78" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C78" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D77" s="8" t="s">
+      <c r="D78" s="5" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="6" t="s">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B78" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C78" s="7" t="s">
+      <c r="B79" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C79" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="D78" s="8" t="s">
+      <c r="D79" s="5" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="6" t="s">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B79" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C79" s="7" t="s">
+      <c r="B80" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C80" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="D79" s="8" t="s">
+      <c r="D80" s="5" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="9" t="s">
+    <row r="81" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="B80" s="10" t="s">
+      <c r="B81" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C80" s="10"/>
-      <c r="D80" s="11" t="s">
+      <c r="C81" s="7"/>
+      <c r="D81" s="8" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="83" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="84" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="3" t="s">
+    <row r="82" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="84" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="85" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="B84" s="4"/>
-      <c r="C84" s="4"/>
-      <c r="D84" s="5"/>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="6" t="s">
+      <c r="B85" s="10"/>
+      <c r="C85" s="10"/>
+      <c r="D85" s="11"/>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B85" s="7" t="s">
+      <c r="B86" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C85" s="7" t="s">
+      <c r="C86" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D85" s="8" t="s">
+      <c r="D86" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="6" t="s">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="B86" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C86" s="7" t="s">
+      <c r="B87" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C87" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D86" s="8" t="s">
+      <c r="D87" s="5" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="6" t="s">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B87" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C87" s="7" t="s">
+      <c r="B88" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C88" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="D87" s="8" t="s">
+      <c r="D88" s="5" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="6" t="s">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B88" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C88" s="7" t="s">
+      <c r="B89" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C89" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="D88" s="8" t="s">
+      <c r="D89" s="5" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="9" t="s">
+    <row r="90" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="B89" s="10" t="s">
+      <c r="B90" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C89" s="10"/>
-      <c r="D89" s="11" t="s">
+      <c r="C90" s="7"/>
+      <c r="D90" s="8" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="92" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="93" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="3" t="s">
+    <row r="91" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="93" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="94" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="B93" s="4"/>
-      <c r="C93" s="4"/>
-      <c r="D93" s="5"/>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" s="6" t="s">
+      <c r="B94" s="10"/>
+      <c r="C94" s="10"/>
+      <c r="D94" s="11"/>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B94" s="7" t="s">
+      <c r="B95" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C94" s="7" t="s">
+      <c r="C95" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D94" s="8" t="s">
+      <c r="D95" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" s="6" t="s">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="B95" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C95" s="7" t="s">
+      <c r="B96" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C96" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D95" s="8" t="s">
+      <c r="D96" s="5" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" s="6" t="s">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B96" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C96" s="7" t="s">
+      <c r="B97" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C97" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="D96" s="8" t="s">
+      <c r="D97" s="5" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="6" t="s">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B97" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C97" s="7" t="s">
+      <c r="B98" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C98" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="D97" s="8" t="s">
+      <c r="D98" s="5" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="9" t="s">
+    <row r="99" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="B98" s="10" t="s">
+      <c r="B99" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C98" s="10"/>
-      <c r="D98" s="11" t="s">
+      <c r="C99" s="7"/>
+      <c r="D99" s="8" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="101" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="102" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="3" t="s">
+    <row r="100" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="102" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="103" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="B102" s="4"/>
-      <c r="C102" s="4"/>
-      <c r="D102" s="5"/>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" s="6" t="s">
+      <c r="B103" s="10"/>
+      <c r="C103" s="10"/>
+      <c r="D103" s="11"/>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B103" s="7" t="s">
+      <c r="B104" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C103" s="7" t="s">
+      <c r="C104" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D103" s="8" t="s">
+      <c r="D104" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104" s="6" t="s">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="B104" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C104" s="7" t="s">
+      <c r="B105" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C105" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D104" s="8" t="s">
+      <c r="D105" s="5" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" s="6" t="s">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="B105" s="7" t="s">
+      <c r="B106" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C105" s="7"/>
-      <c r="D105" s="8" t="s">
+      <c r="C106" s="4"/>
+      <c r="D106" s="5" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106" s="6" t="s">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B106" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C106" s="7" t="s">
+      <c r="B107" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C107" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="D106" s="8" t="s">
+      <c r="D107" s="5" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="9" t="s">
+    <row r="108" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B107" s="10" t="s">
+      <c r="B108" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C107" s="10"/>
-      <c r="D107" s="11" t="s">
+      <c r="C108" s="7"/>
+      <c r="D108" s="8" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="109" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A75:D75"/>
-    <mergeCell ref="A84:D84"/>
-    <mergeCell ref="A93:D93"/>
-    <mergeCell ref="A102:D102"/>
-    <mergeCell ref="A14:D14"/>
     <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A42:D42"/>
-    <mergeCell ref="A54:D54"/>
-    <mergeCell ref="A66:D66"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="A55:D55"/>
+    <mergeCell ref="A67:D67"/>
+    <mergeCell ref="A76:D76"/>
+    <mergeCell ref="A85:D85"/>
+    <mergeCell ref="A94:D94"/>
+    <mergeCell ref="A103:D103"/>
+    <mergeCell ref="A15:D15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/数据库逻辑结构设计.xlsx
+++ b/数据库逻辑结构设计.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="123">
   <si>
     <t>字段名</t>
   </si>
@@ -355,6 +355,39 @@
   </si>
   <si>
     <t>默认为0</t>
+  </si>
+  <si>
+    <t>userFollower</t>
+  </si>
+  <si>
+    <t>userFollowing</t>
+  </si>
+  <si>
+    <t>用户粉丝人数</t>
+  </si>
+  <si>
+    <t>用户关注人数</t>
+  </si>
+  <si>
+    <t>table名：tb_sfollow</t>
+  </si>
+  <si>
+    <t>followID</t>
+  </si>
+  <si>
+    <t>followerUserID</t>
+  </si>
+  <si>
+    <t>followingUserID</t>
+  </si>
+  <si>
+    <t>关注编号</t>
+  </si>
+  <si>
+    <t>被关注人ID</t>
+  </si>
+  <si>
+    <t>粉丝ID</t>
   </si>
 </sst>
 </file>
@@ -840,10 +873,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D109"/>
+  <dimension ref="A1:D119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="C91" sqref="C91"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="C117" sqref="C117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -969,973 +1002,1064 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="B11" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="7" t="s">
+      <c r="B11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="5" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-    </row>
-    <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="7"/>
+      <c r="D13" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="11"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>20</v>
-      </c>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="11"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="D18" s="5" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19" s="4"/>
+        <v>14</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="D19" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>15</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="4"/>
+      <c r="D24" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" s="4"/>
+      <c r="D25" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C24" s="4" t="s">
+      <c r="B26" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D26" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="6" t="s">
+    <row r="27" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B27" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C27" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="D27" s="8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-    </row>
-    <row r="28" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="29" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="9" t="s">
+    <row r="28" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+    </row>
+    <row r="30" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="11"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>54</v>
-      </c>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="11"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C32" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="D32" s="5" t="s">
-        <v>55</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C33" s="4"/>
+        <v>14</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="D33" s="5" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>15</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="5" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C38" s="4"/>
+      <c r="D38" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C39" s="4"/>
+      <c r="D39" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B38" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C38" s="4" t="s">
+      <c r="B40" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C40" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="D38" s="5" t="s">
+      <c r="D40" s="5" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="6" t="s">
+    <row r="41" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="B41" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="C41" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="D39" s="8" t="s">
+      <c r="D41" s="8" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-    </row>
-    <row r="42" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="43" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="9" t="s">
+    <row r="42" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+    </row>
+    <row r="44" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="45" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="B43" s="10"/>
-      <c r="C43" s="10"/>
-      <c r="D43" s="11"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>71</v>
-      </c>
+      <c r="B45" s="10"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="11"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C46" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="D46" s="5" t="s">
-        <v>72</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C47" s="4"/>
+        <v>14</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="D47" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C48" s="4"/>
       <c r="D48" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>69</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="C49" s="4"/>
       <c r="D49" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C50" s="4"/>
+      <c r="D50" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B50" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C50" s="4" t="s">
+      <c r="B52" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C52" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="D50" s="5" t="s">
+      <c r="D52" s="5" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="6" t="s">
+    <row r="53" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="B51" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C51" s="7" t="s">
+      <c r="B53" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C53" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="D51" s="8" t="s">
+      <c r="D53" s="8" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="2"/>
-      <c r="B52" s="2"/>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="2"/>
-      <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
-    </row>
-    <row r="54" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="55" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="9" t="s">
+    <row r="54" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="2"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="2"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+    </row>
+    <row r="56" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="57" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="B55" s="10"/>
-      <c r="C55" s="10"/>
-      <c r="D55" s="11"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D56" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D57" s="5" t="s">
-        <v>71</v>
-      </c>
+      <c r="B57" s="10"/>
+      <c r="C57" s="10"/>
+      <c r="D57" s="11"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C58" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="D58" s="5" t="s">
-        <v>72</v>
+        <v>3</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C59" s="4"/>
+        <v>14</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="D59" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C60" s="4"/>
       <c r="D60" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>69</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="C61" s="4"/>
       <c r="D61" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C62" s="4"/>
+      <c r="D62" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B62" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C62" s="4" t="s">
+      <c r="B64" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C64" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="D62" s="5" t="s">
+      <c r="D64" s="5" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="6" t="s">
+    <row r="65" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="B63" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C63" s="7" t="s">
+      <c r="B65" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C65" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="D63" s="8" t="s">
+      <c r="D65" s="8" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="66" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="67" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="9" t="s">
+    <row r="66" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="68" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="69" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="B67" s="10"/>
-      <c r="C67" s="10"/>
-      <c r="D67" s="11"/>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D68" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D69" s="5" t="s">
-        <v>86</v>
-      </c>
+      <c r="B69" s="10"/>
+      <c r="C69" s="10"/>
+      <c r="D69" s="11"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>85</v>
+        <v>2</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>87</v>
+        <v>3</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B71" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C71" s="4" t="s">
+      <c r="B73" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C73" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="D71" s="5" t="s">
+      <c r="D73" s="5" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="6" t="s">
+    <row r="74" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="B72" s="7" t="s">
+      <c r="B74" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C72" s="7"/>
-      <c r="D72" s="8" t="s">
+      <c r="C74" s="7"/>
+      <c r="D74" s="8" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="75" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="76" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="9" t="s">
+    <row r="75" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="77" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="78" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="B76" s="10"/>
-      <c r="C76" s="10"/>
-      <c r="D76" s="11"/>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D77" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C78" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D78" s="5" t="s">
-        <v>86</v>
-      </c>
+      <c r="B78" s="10"/>
+      <c r="C78" s="10"/>
+      <c r="D78" s="11"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>90</v>
+        <v>2</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>87</v>
+        <v>3</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B80" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C80" s="4" t="s">
+      <c r="B82" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C82" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="D80" s="5" t="s">
+      <c r="D82" s="5" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="6" t="s">
+    <row r="83" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="B81" s="7" t="s">
+      <c r="B83" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C81" s="7"/>
-      <c r="D81" s="8" t="s">
+      <c r="C83" s="7"/>
+      <c r="D83" s="8" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="84" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="85" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="9" t="s">
+    <row r="84" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="86" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="87" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="B85" s="10"/>
-      <c r="C85" s="10"/>
-      <c r="D85" s="11"/>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B86" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C86" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D86" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B87" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C87" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D87" s="5" t="s">
-        <v>86</v>
-      </c>
+      <c r="B87" s="10"/>
+      <c r="C87" s="10"/>
+      <c r="D87" s="11"/>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>70</v>
+        <v>2</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>94</v>
+        <v>3</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D89" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D90" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B89" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C89" s="4" t="s">
+      <c r="B91" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C91" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="D89" s="5" t="s">
+      <c r="D91" s="5" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="6" t="s">
+    <row r="92" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="B90" s="7" t="s">
+      <c r="B92" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C90" s="7"/>
-      <c r="D90" s="8" t="s">
+      <c r="C92" s="7"/>
+      <c r="D92" s="8" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="93" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="94" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="9" t="s">
+    <row r="93" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="95" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="96" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="B94" s="10"/>
-      <c r="C94" s="10"/>
-      <c r="D94" s="11"/>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B95" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C95" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D95" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B96" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C96" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D96" s="5" t="s">
-        <v>86</v>
-      </c>
+      <c r="B96" s="10"/>
+      <c r="C96" s="10"/>
+      <c r="D96" s="11"/>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>80</v>
+        <v>2</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>99</v>
+        <v>3</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D98" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D99" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B98" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C98" s="4" t="s">
+      <c r="B100" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C100" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="D98" s="5" t="s">
+      <c r="D100" s="5" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="6" t="s">
+    <row r="101" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="B99" s="7" t="s">
+      <c r="B101" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C99" s="7"/>
-      <c r="D99" s="8" t="s">
+      <c r="C101" s="7"/>
+      <c r="D101" s="8" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="102" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="103" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="9" t="s">
+    <row r="102" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="104" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="105" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="B103" s="10"/>
-      <c r="C103" s="10"/>
-      <c r="D103" s="11"/>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B104" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C104" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D104" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="B105" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C105" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D105" s="5" t="s">
-        <v>105</v>
-      </c>
+      <c r="B105" s="10"/>
+      <c r="C105" s="10"/>
+      <c r="D105" s="11"/>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>104</v>
+        <v>0</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C106" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="D106" s="5" t="s">
-        <v>106</v>
+        <v>3</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D107" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C108" s="4"/>
+      <c r="D108" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B107" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C107" s="4" t="s">
+      <c r="B109" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C109" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="D107" s="5" t="s">
+      <c r="D109" s="5" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="6" t="s">
+    <row r="110" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B108" s="7" t="s">
+      <c r="B110" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C108" s="7"/>
-      <c r="D108" s="8" t="s">
+      <c r="C110" s="7"/>
+      <c r="D110" s="8" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="111" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="113" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="114" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="B114" s="10"/>
+      <c r="C114" s="10"/>
+      <c r="D114" s="11"/>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C115" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D115" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C116" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D116" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C117" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D117" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="B118" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C118" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D118" s="8" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
+    <mergeCell ref="A114:D114"/>
+    <mergeCell ref="A78:D78"/>
+    <mergeCell ref="A87:D87"/>
+    <mergeCell ref="A96:D96"/>
+    <mergeCell ref="A105:D105"/>
+    <mergeCell ref="A17:D17"/>
     <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="A55:D55"/>
-    <mergeCell ref="A67:D67"/>
-    <mergeCell ref="A76:D76"/>
-    <mergeCell ref="A85:D85"/>
-    <mergeCell ref="A94:D94"/>
-    <mergeCell ref="A103:D103"/>
-    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A69:D69"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/数据库逻辑结构设计.xlsx
+++ b/数据库逻辑结构设计.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="136">
   <si>
     <t>字段名</t>
   </si>
@@ -388,6 +388,45 @@
   </si>
   <si>
     <t>粉丝ID</t>
+  </si>
+  <si>
+    <t>table名：tb_letter</t>
+  </si>
+  <si>
+    <t>letterID</t>
+  </si>
+  <si>
+    <t>sendUserID</t>
+  </si>
+  <si>
+    <t>receiveUserID</t>
+  </si>
+  <si>
+    <t>letterContent</t>
+  </si>
+  <si>
+    <t>leterRead</t>
+  </si>
+  <si>
+    <t>leterSendTime</t>
+  </si>
+  <si>
+    <t>私信编号</t>
+  </si>
+  <si>
+    <t>写信人ID</t>
+  </si>
+  <si>
+    <t>收信人ID</t>
+  </si>
+  <si>
+    <t>私信内容</t>
+  </si>
+  <si>
+    <t>是否已读，0为未读，1为已读</t>
+  </si>
+  <si>
+    <t>私信发送时间</t>
   </si>
 </sst>
 </file>
@@ -873,10 +912,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D119"/>
+  <dimension ref="A1:D130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="C117" sqref="C117"/>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="D129" sqref="D129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2047,19 +2086,124 @@
       </c>
     </row>
     <row r="119" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="121" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="122" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="B122" s="10"/>
+      <c r="C122" s="10"/>
+      <c r="D122" s="11"/>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C123" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D123" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C124" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D124" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C125" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D125" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B126" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C126" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D126" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C127" s="4"/>
+      <c r="D127" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B128" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C128" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D128" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="B129" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C129" s="7"/>
+      <c r="D129" s="8" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A122:D122"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A57:D57"/>
     <mergeCell ref="A114:D114"/>
     <mergeCell ref="A78:D78"/>
     <mergeCell ref="A87:D87"/>
     <mergeCell ref="A96:D96"/>
     <mergeCell ref="A105:D105"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A69:D69"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/数据库逻辑结构设计.xlsx
+++ b/数据库逻辑结构设计.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="157">
   <si>
     <t>字段名</t>
   </si>
@@ -369,9 +369,6 @@
     <t>用户关注人数</t>
   </si>
   <si>
-    <t>table名：tb_sfollow</t>
-  </si>
-  <si>
     <t>followID</t>
   </si>
   <si>
@@ -427,16 +424,89 @@
   </si>
   <si>
     <t>私信发送时间</t>
+  </si>
+  <si>
+    <t>table名：tb_follow</t>
+  </si>
+  <si>
+    <t>userAttend</t>
+  </si>
+  <si>
+    <t>用户参加小组个数</t>
+  </si>
+  <si>
+    <t>table名：tb_group</t>
+  </si>
+  <si>
+    <t>groupID</t>
+  </si>
+  <si>
+    <t>groupName</t>
+  </si>
+  <si>
+    <t>groupType</t>
+  </si>
+  <si>
+    <t>groupInfo</t>
+  </si>
+  <si>
+    <t>小组编号</t>
+  </si>
+  <si>
+    <t>小组名称</t>
+  </si>
+  <si>
+    <t>小组类别</t>
+  </si>
+  <si>
+    <t>小组简介</t>
+  </si>
+  <si>
+    <t>groupUserNum</t>
+  </si>
+  <si>
+    <t>参加小组人数</t>
+  </si>
+  <si>
+    <t>评论所属小组编号</t>
+  </si>
+  <si>
+    <t>table名：tb_groupcomment</t>
+  </si>
+  <si>
+    <t>外键（引用tb_group：groupID）</t>
+  </si>
+  <si>
+    <t>table名：tb_groupapprove</t>
+  </si>
+  <si>
+    <t>外键（引用tb_groupcomment：commentID）</t>
+  </si>
+  <si>
+    <t>attendID</t>
+  </si>
+  <si>
+    <t>table名：tb_attendgroup</t>
+  </si>
+  <si>
+    <t>参加小组用户编号</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -597,7 +667,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -630,6 +700,19 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -912,10 +995,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D130"/>
+  <dimension ref="A1:D170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="D129" sqref="D129"/>
+    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
+      <selection activeCell="D167" sqref="D167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1067,1079 +1150,1079 @@
         <v>114</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="6" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="B13" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="8" t="s">
+      <c r="B13" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="5" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
     </row>
-    <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="11"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>3</v>
-      </c>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="11"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="4"/>
+        <v>14</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="D20" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>15</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>15</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="4"/>
+      <c r="D26" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B26" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C26" s="4" t="s">
+      <c r="B27" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D27" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="6" t="s">
+    <row r="28" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B28" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C28" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="D27" s="8" t="s">
+      <c r="D28" s="8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
     </row>
-    <row r="30" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="31" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="9" t="s">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+    </row>
+    <row r="31" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="11"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>3</v>
-      </c>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="11"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>54</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C34" s="4"/>
+        <v>14</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="D34" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>15</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="5" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>15</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="5" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C40" s="4"/>
+      <c r="D40" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B40" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C40" s="4" t="s">
+      <c r="B41" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C41" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="D40" s="5" t="s">
+      <c r="D41" s="5" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="6" t="s">
+    <row r="42" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B42" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C41" s="7" t="s">
+      <c r="C42" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="D41" s="8" t="s">
+      <c r="D42" s="8" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
     </row>
-    <row r="44" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="45" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="9" t="s">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+    </row>
+    <row r="45" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="46" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="B45" s="10"/>
-      <c r="C45" s="10"/>
-      <c r="D45" s="11"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>3</v>
-      </c>
+      <c r="B46" s="10"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="11"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>71</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C48" s="4"/>
+        <v>14</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="D48" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C50" s="4"/>
       <c r="D50" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>69</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="C51" s="4"/>
       <c r="D51" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B52" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C52" s="4" t="s">
+      <c r="B53" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C53" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="D52" s="5" t="s">
+      <c r="D53" s="5" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="6" t="s">
+    <row r="54" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="B53" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C53" s="7" t="s">
+      <c r="B54" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C54" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="D53" s="8" t="s">
+      <c r="D54" s="8" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="2"/>
-      <c r="B54" s="2"/>
-      <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
     </row>
-    <row r="56" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="57" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="9" t="s">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="2"/>
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+    </row>
+    <row r="57" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="58" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="B57" s="10"/>
-      <c r="C57" s="10"/>
-      <c r="D57" s="11"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D58" s="5" t="s">
-        <v>3</v>
-      </c>
+      <c r="B58" s="10"/>
+      <c r="C58" s="10"/>
+      <c r="D58" s="11"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>71</v>
+        <v>3</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C60" s="4"/>
+        <v>14</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="D60" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C61" s="4"/>
       <c r="D61" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C62" s="4"/>
       <c r="D62" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>69</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="C63" s="4"/>
       <c r="D63" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B64" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C64" s="4" t="s">
+      <c r="B65" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C65" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="D64" s="5" t="s">
+      <c r="D65" s="5" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="6" t="s">
+    <row r="66" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="B65" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C65" s="7" t="s">
+      <c r="B66" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C66" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="D65" s="8" t="s">
+      <c r="D66" s="8" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="68" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="69" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="9" t="s">
+    <row r="67" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="69" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="70" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="B69" s="10"/>
-      <c r="C69" s="10"/>
-      <c r="D69" s="11"/>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B70" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D70" s="5" t="s">
-        <v>3</v>
-      </c>
+      <c r="B70" s="10"/>
+      <c r="C70" s="10"/>
+      <c r="D70" s="11"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>82</v>
+        <v>0</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B73" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C73" s="4" t="s">
+      <c r="B74" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C74" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="D73" s="5" t="s">
+      <c r="D74" s="5" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="6" t="s">
+    <row r="75" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="B74" s="7" t="s">
+      <c r="B75" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C74" s="7"/>
-      <c r="D74" s="8" t="s">
+      <c r="C75" s="7"/>
+      <c r="D75" s="8" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="77" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="78" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="9" t="s">
+    <row r="76" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="78" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="79" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="B78" s="10"/>
-      <c r="C78" s="10"/>
-      <c r="D78" s="11"/>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B79" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D79" s="5" t="s">
-        <v>3</v>
-      </c>
+      <c r="B79" s="10"/>
+      <c r="C79" s="10"/>
+      <c r="D79" s="11"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>82</v>
+        <v>0</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>90</v>
+        <v>19</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B82" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C82" s="4" t="s">
+      <c r="B83" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C83" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="D82" s="5" t="s">
+      <c r="D83" s="5" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="6" t="s">
+    <row r="84" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="B83" s="7" t="s">
+      <c r="B84" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C83" s="7"/>
-      <c r="D83" s="8" t="s">
+      <c r="C84" s="7"/>
+      <c r="D84" s="8" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="86" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="87" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="9" t="s">
+    <row r="85" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="87" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="88" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="B87" s="10"/>
-      <c r="C87" s="10"/>
-      <c r="D87" s="11"/>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B88" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C88" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D88" s="5" t="s">
-        <v>3</v>
-      </c>
+      <c r="B88" s="10"/>
+      <c r="C88" s="10"/>
+      <c r="D88" s="11"/>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>5</v>
+        <v>92</v>
       </c>
       <c r="B90" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>70</v>
+        <v>19</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D91" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B91" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C91" s="4" t="s">
+      <c r="B92" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C92" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="D91" s="5" t="s">
+      <c r="D92" s="5" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="6" t="s">
+    <row r="93" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="B92" s="7" t="s">
+      <c r="B93" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C92" s="7"/>
-      <c r="D92" s="8" t="s">
+      <c r="C93" s="7"/>
+      <c r="D93" s="8" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="95" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="96" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="9" t="s">
+    <row r="94" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="96" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="97" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="B96" s="10"/>
-      <c r="C96" s="10"/>
-      <c r="D96" s="11"/>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B97" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C97" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D97" s="5" t="s">
-        <v>3</v>
-      </c>
+      <c r="B97" s="10"/>
+      <c r="C97" s="10"/>
+      <c r="D97" s="11"/>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="D98" s="5" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>45</v>
+        <v>98</v>
       </c>
       <c r="B99" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>80</v>
+        <v>19</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D100" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B100" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C100" s="4" t="s">
+      <c r="B101" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C101" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="D100" s="5" t="s">
+      <c r="D101" s="5" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="6" t="s">
+    <row r="102" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="B101" s="7" t="s">
+      <c r="B102" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C101" s="7"/>
-      <c r="D101" s="8" t="s">
+      <c r="C102" s="7"/>
+      <c r="D102" s="8" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="104" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="105" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="9" t="s">
+    <row r="103" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="105" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="106" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="B105" s="10"/>
-      <c r="C105" s="10"/>
-      <c r="D105" s="11"/>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B106" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C106" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D106" s="5" t="s">
-        <v>3</v>
-      </c>
+      <c r="B106" s="10"/>
+      <c r="C106" s="10"/>
+      <c r="D106" s="11"/>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>103</v>
+        <v>0</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="D107" s="5" t="s">
-        <v>105</v>
+        <v>3</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C108" s="4"/>
+        <v>14</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="D108" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C109" s="4"/>
+      <c r="D109" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B109" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C109" s="4" t="s">
+      <c r="B110" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C110" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="D109" s="5" t="s">
+      <c r="D110" s="5" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="6" t="s">
+    <row r="111" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B110" s="7" t="s">
+      <c r="B111" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C110" s="7"/>
-      <c r="D110" s="8" t="s">
+      <c r="C111" s="7"/>
+      <c r="D111" s="8" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="113" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="114" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="B114" s="10"/>
-      <c r="C114" s="10"/>
-      <c r="D114" s="11"/>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A115" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B115" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C115" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D115" s="5" t="s">
-        <v>3</v>
-      </c>
+    <row r="112" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="114" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="115" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="B115" s="10"/>
+      <c r="C115" s="10"/>
+      <c r="D115" s="11"/>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
-        <v>117</v>
+        <v>0</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="D116" s="5" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C117" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D117" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C118" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D118" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="B117" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C117" s="4" t="s">
+      <c r="B119" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C119" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="D117" s="5" t="s">
+      <c r="D119" s="8" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="B118" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C118" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="D118" s="8" t="s">
+    <row r="120" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="122" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="123" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="9" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="119" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="121" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="122" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="B122" s="10"/>
-      <c r="C122" s="10"/>
-      <c r="D122" s="11"/>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A123" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B123" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C123" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D123" s="5" t="s">
-        <v>3</v>
-      </c>
+      <c r="B123" s="10"/>
+      <c r="C123" s="10"/>
+      <c r="D123" s="11"/>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
-        <v>124</v>
+        <v>0</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="D124" s="5" t="s">
-        <v>130</v>
+        <v>3</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B125" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="D125" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B126" s="4" t="s">
         <v>14</v>
@@ -2148,62 +2231,433 @@
         <v>69</v>
       </c>
       <c r="D126" s="5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C127" s="4"/>
+        <v>14</v>
+      </c>
+      <c r="C127" s="4" t="s">
+        <v>69</v>
+      </c>
       <c r="D127" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B128" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C128" s="4"/>
+      <c r="D128" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B129" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C129" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D129" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="B128" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C128" s="4" t="s">
+      <c r="B130" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C130" s="7"/>
+      <c r="D130" s="8" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="133" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="134" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="B134" s="10"/>
+      <c r="C134" s="10"/>
+      <c r="D134" s="11"/>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B135" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C135" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D135" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B136" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C136" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D136" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B137" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C137" s="4"/>
+      <c r="D137" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B138" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C138" s="4"/>
+      <c r="D138" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B139" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C139" s="4"/>
+      <c r="D139" s="5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A140" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="B140" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C140" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="D128" s="5" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="B129" s="7" t="s">
+      <c r="D140" s="8" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" s="15" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="16"/>
+      <c r="B141" s="16"/>
+      <c r="C141" s="16"/>
+      <c r="D141" s="16"/>
+    </row>
+    <row r="143" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="144" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="B144" s="10"/>
+      <c r="C144" s="10"/>
+      <c r="D144" s="11"/>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B145" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C145" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D145" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B146" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C146" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D146" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B147" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C147" s="4"/>
+      <c r="D147" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B148" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C148" s="4"/>
+      <c r="D148" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B149" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C129" s="7"/>
-      <c r="D129" s="8" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="C149" s="4"/>
+      <c r="D149" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B150" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C150" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D150" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="B151" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C151" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="D151" s="14" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A152" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B152" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C152" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="D152" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="155" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="156" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="B156" s="10"/>
+      <c r="C156" s="10"/>
+      <c r="D156" s="11"/>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B157" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C157" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D157" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B158" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C158" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D158" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A159" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B159" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C159" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="D159" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A160" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B160" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C160" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D160" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A161" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B161" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C161" s="7"/>
+      <c r="D161" s="8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="164" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="165" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="B165" s="10"/>
+      <c r="C165" s="10"/>
+      <c r="D165" s="11"/>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A166" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B166" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C166" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D166" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A167" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B167" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C167" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D167" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A168" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B168" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C168" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D168" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A169" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B169" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C169" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D169" s="8" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A122:D122"/>
-    <mergeCell ref="A17:D17"/>
+  <mergeCells count="16">
+    <mergeCell ref="A134:D134"/>
+    <mergeCell ref="A144:D144"/>
+    <mergeCell ref="A156:D156"/>
+    <mergeCell ref="A165:D165"/>
+    <mergeCell ref="A70:D70"/>
+    <mergeCell ref="A123:D123"/>
+    <mergeCell ref="A18:D18"/>
     <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A114:D114"/>
-    <mergeCell ref="A78:D78"/>
-    <mergeCell ref="A87:D87"/>
-    <mergeCell ref="A96:D96"/>
-    <mergeCell ref="A105:D105"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A58:D58"/>
+    <mergeCell ref="A115:D115"/>
+    <mergeCell ref="A79:D79"/>
+    <mergeCell ref="A88:D88"/>
+    <mergeCell ref="A97:D97"/>
+    <mergeCell ref="A106:D106"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/数据库逻辑结构设计.xlsx
+++ b/数据库逻辑结构设计.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="176">
   <si>
     <t>字段名</t>
   </si>
@@ -468,18 +468,12 @@
     <t>参加小组人数</t>
   </si>
   <si>
-    <t>评论所属小组编号</t>
-  </si>
-  <si>
     <t>table名：tb_groupcomment</t>
   </si>
   <si>
     <t>外键（引用tb_group：groupID）</t>
   </si>
   <si>
-    <t>table名：tb_groupapprove</t>
-  </si>
-  <si>
     <t>外键（引用tb_groupcomment：commentID）</t>
   </si>
   <si>
@@ -490,6 +484,69 @@
   </si>
   <si>
     <t>参加小组用户编号</t>
+  </si>
+  <si>
+    <t>table名：tb_grouppost</t>
+  </si>
+  <si>
+    <t>postID</t>
+  </si>
+  <si>
+    <t>postTitle</t>
+  </si>
+  <si>
+    <t>postContent</t>
+  </si>
+  <si>
+    <t>postApprove</t>
+  </si>
+  <si>
+    <t>帖子编号</t>
+  </si>
+  <si>
+    <t>groupPostNum</t>
+  </si>
+  <si>
+    <t>小组中帖子个数</t>
+  </si>
+  <si>
+    <t>commentNum</t>
+  </si>
+  <si>
+    <t>帖子标题</t>
+  </si>
+  <si>
+    <t>帖子内容</t>
+  </si>
+  <si>
+    <t>发布时间</t>
+  </si>
+  <si>
+    <t>帖子所属小组编号</t>
+  </si>
+  <si>
+    <t>发布用户编号</t>
+  </si>
+  <si>
+    <t>帖子中评论个数</t>
+  </si>
+  <si>
+    <t>帖子被点赞数</t>
+  </si>
+  <si>
+    <t>外键（引用tb_grouppost：postID）</t>
+  </si>
+  <si>
+    <t>评论所属帖子编号</t>
+  </si>
+  <si>
+    <t>table名：tb_grouppostapprove</t>
+  </si>
+  <si>
+    <t>评价所属帖子编号</t>
+  </si>
+  <si>
+    <t>table名：tb_groupcommentapprove</t>
   </si>
 </sst>
 </file>
@@ -520,7 +577,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -663,11 +720,83 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -693,6 +822,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -702,17 +835,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -995,10 +1133,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D170"/>
+  <dimension ref="A1:D193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
-      <selection activeCell="D167" sqref="D167"/>
+    <sheetView tabSelected="1" topLeftCell="A181" workbookViewId="0">
+      <selection activeCell="A134" sqref="A134:D134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1011,12 +1149,12 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="11"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="13"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -1190,12 +1328,12 @@
     </row>
     <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="18" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="11"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="13"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
@@ -1339,12 +1477,12 @@
     </row>
     <row r="31" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="32" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="9" t="s">
+      <c r="A32" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="11"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="13"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
@@ -1488,12 +1626,12 @@
     </row>
     <row r="45" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="46" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="9" t="s">
+      <c r="A46" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="B46" s="10"/>
-      <c r="C46" s="10"/>
-      <c r="D46" s="11"/>
+      <c r="B46" s="12"/>
+      <c r="C46" s="12"/>
+      <c r="D46" s="13"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
@@ -1615,12 +1753,12 @@
     </row>
     <row r="57" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="58" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="9" t="s">
+      <c r="A58" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="B58" s="10"/>
-      <c r="C58" s="10"/>
-      <c r="D58" s="11"/>
+      <c r="B58" s="12"/>
+      <c r="C58" s="12"/>
+      <c r="D58" s="13"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
@@ -1731,12 +1869,12 @@
     <row r="67" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="69" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="70" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="9" t="s">
+      <c r="A70" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="B70" s="10"/>
-      <c r="C70" s="10"/>
-      <c r="D70" s="11"/>
+      <c r="B70" s="12"/>
+      <c r="C70" s="12"/>
+      <c r="D70" s="13"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
@@ -1809,12 +1947,12 @@
     <row r="76" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="78" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="79" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="9" t="s">
+      <c r="A79" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="B79" s="10"/>
-      <c r="C79" s="10"/>
-      <c r="D79" s="11"/>
+      <c r="B79" s="12"/>
+      <c r="C79" s="12"/>
+      <c r="D79" s="13"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
@@ -1887,12 +2025,12 @@
     <row r="85" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="87" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="88" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="9" t="s">
+      <c r="A88" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="B88" s="10"/>
-      <c r="C88" s="10"/>
-      <c r="D88" s="11"/>
+      <c r="B88" s="12"/>
+      <c r="C88" s="12"/>
+      <c r="D88" s="13"/>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
@@ -1965,12 +2103,12 @@
     <row r="94" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="96" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="97" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="9" t="s">
+      <c r="A97" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="B97" s="10"/>
-      <c r="C97" s="10"/>
-      <c r="D97" s="11"/>
+      <c r="B97" s="12"/>
+      <c r="C97" s="12"/>
+      <c r="D97" s="13"/>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
@@ -2043,12 +2181,12 @@
     <row r="103" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="105" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="106" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="9" t="s">
+      <c r="A106" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="B106" s="10"/>
-      <c r="C106" s="10"/>
-      <c r="D106" s="11"/>
+      <c r="B106" s="12"/>
+      <c r="C106" s="12"/>
+      <c r="D106" s="13"/>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
@@ -2119,12 +2257,12 @@
     <row r="112" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="114" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="115" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="9" t="s">
+      <c r="A115" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="B115" s="10"/>
-      <c r="C115" s="10"/>
-      <c r="D115" s="11"/>
+      <c r="B115" s="12"/>
+      <c r="C115" s="12"/>
+      <c r="D115" s="13"/>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
@@ -2185,12 +2323,12 @@
     <row r="120" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="122" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="123" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="9" t="s">
+      <c r="A123" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="B123" s="10"/>
-      <c r="C123" s="10"/>
-      <c r="D123" s="11"/>
+      <c r="B123" s="12"/>
+      <c r="C123" s="12"/>
+      <c r="D123" s="13"/>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
@@ -2289,12 +2427,12 @@
     <row r="131" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="133" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="134" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="9" t="s">
+      <c r="A134" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="B134" s="10"/>
-      <c r="C134" s="10"/>
-      <c r="D134" s="11"/>
+      <c r="B134" s="12"/>
+      <c r="C134" s="12"/>
+      <c r="D134" s="13"/>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
@@ -2360,304 +2498,544 @@
         <v>146</v>
       </c>
     </row>
-    <row r="140" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="6" t="s">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="B140" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C140" s="7" t="s">
+      <c r="B140" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C140" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="D140" s="8" t="s">
+      <c r="D140" s="5" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="141" spans="1:4" s="15" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="16"/>
-      <c r="B141" s="16"/>
-      <c r="C141" s="16"/>
-      <c r="D141" s="16"/>
-    </row>
-    <row r="143" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="144" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="B144" s="10"/>
-      <c r="C144" s="10"/>
-      <c r="D144" s="11"/>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A145" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B145" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C145" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D145" s="5" t="s">
-        <v>3</v>
-      </c>
+    <row r="141" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A141" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="B141" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C141" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="D141" s="8" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" s="9" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="10"/>
+      <c r="B142" s="10"/>
+      <c r="C142" s="10"/>
+      <c r="D142" s="10"/>
+    </row>
+    <row r="144" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="145" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="B145" s="12"/>
+      <c r="C145" s="12"/>
+      <c r="D145" s="13"/>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="D146" s="5" t="s">
-        <v>71</v>
+        <v>3</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
-        <v>64</v>
+        <v>156</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C147" s="4"/>
+        <v>14</v>
+      </c>
+      <c r="C147" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="D147" s="5" t="s">
-        <v>72</v>
+        <v>160</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
-        <v>65</v>
+        <v>157</v>
       </c>
       <c r="B148" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C148" s="4"/>
       <c r="D148" s="5" t="s">
-        <v>73</v>
+        <v>164</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="3" t="s">
-        <v>66</v>
+        <v>158</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C149" s="4"/>
       <c r="D149" s="5" t="s">
-        <v>74</v>
+        <v>165</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B150" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C150" s="4"/>
+      <c r="D150" s="5" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B151" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C151" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="D151" s="5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B150" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C150" s="4" t="s">
+      <c r="B152" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C152" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="D150" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="B151" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C151" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="D151" s="14" t="s">
+      <c r="D152" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="B153" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C153" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="D153" s="16" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A154" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="B154" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C154" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="D154" s="8" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="157" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="158" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="11" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="152" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A152" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="B152" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C152" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="D152" s="8" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="155" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="156" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="B156" s="10"/>
-      <c r="C156" s="10"/>
-      <c r="D156" s="11"/>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A157" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B157" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C157" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D157" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A158" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B158" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C158" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D158" s="5" t="s">
-        <v>86</v>
-      </c>
+      <c r="B158" s="12"/>
+      <c r="C158" s="12"/>
+      <c r="D158" s="13"/>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="3" t="s">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>153</v>
+        <v>2</v>
       </c>
       <c r="D159" s="5" t="s">
-        <v>87</v>
+        <v>3</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B160" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C160" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D160" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A161" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B161" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C161" s="4"/>
+      <c r="D161" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A162" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B162" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C162" s="4"/>
+      <c r="D162" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A163" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B163" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C163" s="4"/>
+      <c r="D163" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A164" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B160" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C160" s="4" t="s">
+      <c r="B164" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C164" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="D160" s="5" t="s">
+      <c r="D164" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A165" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B165" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C165" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="D165" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A166" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B166" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C166" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="D166" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="169" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="170" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A170" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="B170" s="12"/>
+      <c r="C170" s="12"/>
+      <c r="D170" s="13"/>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A171" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B171" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C171" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D171" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A172" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B172" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C172" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D172" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A173" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B173" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C173" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="D173" s="5" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A174" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B174" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C174" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D174" s="5" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="161" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A161" s="6" t="s">
+    <row r="175" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A175" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="B161" s="7" t="s">
+      <c r="B175" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C161" s="7"/>
-      <c r="D161" s="8" t="s">
+      <c r="C175" s="7"/>
+      <c r="D175" s="8" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="162" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="164" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="165" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="B165" s="10"/>
-      <c r="C165" s="10"/>
-      <c r="D165" s="11"/>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A166" s="3" t="s">
+    <row r="176" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A176" s="17"/>
+      <c r="B176" s="18"/>
+      <c r="C176" s="18"/>
+      <c r="D176" s="19"/>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A177" s="17"/>
+      <c r="B177" s="18"/>
+      <c r="C177" s="18"/>
+      <c r="D177" s="19"/>
+    </row>
+    <row r="178" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A178" s="17"/>
+      <c r="B178" s="18"/>
+      <c r="C178" s="18"/>
+      <c r="D178" s="19"/>
+    </row>
+    <row r="179" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A179" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="B179" s="12"/>
+      <c r="C179" s="12"/>
+      <c r="D179" s="13"/>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A180" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B166" s="4" t="s">
+      <c r="B180" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C166" s="4" t="s">
+      <c r="C180" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D166" s="5" t="s">
+      <c r="D180" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A167" s="3" t="s">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A181" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B181" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C181" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D181" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A182" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B182" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C182" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D182" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A183" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B183" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C183" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D183" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A184" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B184" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C184" s="7"/>
+      <c r="D184" s="8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="187" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="188" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A188" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="B188" s="12"/>
+      <c r="C188" s="12"/>
+      <c r="D188" s="13"/>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A189" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B189" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C189" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D189" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A190" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B190" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C190" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D190" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A191" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B191" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C191" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="D191" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A192" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B192" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C192" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D192" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="B167" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C167" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D167" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A168" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="B168" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C168" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="D168" s="5" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A169" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B169" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C169" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="D169" s="8" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    </row>
+    <row r="193" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="A134:D134"/>
-    <mergeCell ref="A144:D144"/>
-    <mergeCell ref="A156:D156"/>
-    <mergeCell ref="A165:D165"/>
-    <mergeCell ref="A70:D70"/>
-    <mergeCell ref="A123:D123"/>
+  <mergeCells count="18">
     <mergeCell ref="A18:D18"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A32:D32"/>
     <mergeCell ref="A46:D46"/>
     <mergeCell ref="A58:D58"/>
+    <mergeCell ref="A134:D134"/>
+    <mergeCell ref="A158:D158"/>
+    <mergeCell ref="A179:D179"/>
+    <mergeCell ref="A188:D188"/>
+    <mergeCell ref="A70:D70"/>
+    <mergeCell ref="A123:D123"/>
     <mergeCell ref="A115:D115"/>
     <mergeCell ref="A79:D79"/>
     <mergeCell ref="A88:D88"/>
     <mergeCell ref="A97:D97"/>
     <mergeCell ref="A106:D106"/>
+    <mergeCell ref="A145:D145"/>
+    <mergeCell ref="A170:D170"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/数据库逻辑结构设计.xlsx
+++ b/数据库逻辑结构设计.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="178">
   <si>
     <t>字段名</t>
   </si>
@@ -547,6 +547,12 @@
   </si>
   <si>
     <t>table名：tb_groupcommentapprove</t>
+  </si>
+  <si>
+    <t>recentModifyTime</t>
+  </si>
+  <si>
+    <t>最近被添加评论时间（创建时为发帖时间）</t>
   </si>
 </sst>
 </file>
@@ -577,7 +583,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -727,45 +733,6 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -796,7 +763,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -826,15 +793,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -844,13 +802,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1133,10 +1091,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D193"/>
+  <dimension ref="A1:D194"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A181" workbookViewId="0">
-      <selection activeCell="A134" sqref="A134:D134"/>
+    <sheetView tabSelected="1" topLeftCell="A143" workbookViewId="0">
+      <selection activeCell="C156" sqref="C156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1149,12 +1107,12 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="13"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="16"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -1328,12 +1286,12 @@
     </row>
     <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="18" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="13"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="16"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
@@ -1477,12 +1435,12 @@
     </row>
     <row r="31" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="32" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="11" t="s">
+      <c r="A32" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B32" s="12"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="13"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="16"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
@@ -1626,12 +1584,12 @@
     </row>
     <row r="45" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="46" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="11" t="s">
+      <c r="A46" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="B46" s="12"/>
-      <c r="C46" s="12"/>
-      <c r="D46" s="13"/>
+      <c r="B46" s="15"/>
+      <c r="C46" s="15"/>
+      <c r="D46" s="16"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
@@ -1753,12 +1711,12 @@
     </row>
     <row r="57" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="58" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="11" t="s">
+      <c r="A58" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="B58" s="12"/>
-      <c r="C58" s="12"/>
-      <c r="D58" s="13"/>
+      <c r="B58" s="15"/>
+      <c r="C58" s="15"/>
+      <c r="D58" s="16"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
@@ -1869,12 +1827,12 @@
     <row r="67" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="69" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="70" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="11" t="s">
+      <c r="A70" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="B70" s="12"/>
-      <c r="C70" s="12"/>
-      <c r="D70" s="13"/>
+      <c r="B70" s="15"/>
+      <c r="C70" s="15"/>
+      <c r="D70" s="16"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
@@ -1947,12 +1905,12 @@
     <row r="76" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="78" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="79" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="11" t="s">
+      <c r="A79" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="B79" s="12"/>
-      <c r="C79" s="12"/>
-      <c r="D79" s="13"/>
+      <c r="B79" s="15"/>
+      <c r="C79" s="15"/>
+      <c r="D79" s="16"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
@@ -2025,12 +1983,12 @@
     <row r="85" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="87" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="88" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="11" t="s">
+      <c r="A88" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="B88" s="12"/>
-      <c r="C88" s="12"/>
-      <c r="D88" s="13"/>
+      <c r="B88" s="15"/>
+      <c r="C88" s="15"/>
+      <c r="D88" s="16"/>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
@@ -2103,12 +2061,12 @@
     <row r="94" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="96" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="97" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="11" t="s">
+      <c r="A97" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="B97" s="12"/>
-      <c r="C97" s="12"/>
-      <c r="D97" s="13"/>
+      <c r="B97" s="15"/>
+      <c r="C97" s="15"/>
+      <c r="D97" s="16"/>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
@@ -2181,12 +2139,12 @@
     <row r="103" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="105" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="106" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="11" t="s">
+      <c r="A106" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="B106" s="12"/>
-      <c r="C106" s="12"/>
-      <c r="D106" s="13"/>
+      <c r="B106" s="15"/>
+      <c r="C106" s="15"/>
+      <c r="D106" s="16"/>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
@@ -2257,12 +2215,12 @@
     <row r="112" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="114" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="115" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="11" t="s">
+      <c r="A115" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="B115" s="12"/>
-      <c r="C115" s="12"/>
-      <c r="D115" s="13"/>
+      <c r="B115" s="15"/>
+      <c r="C115" s="15"/>
+      <c r="D115" s="16"/>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
@@ -2323,12 +2281,12 @@
     <row r="120" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="122" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="123" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="11" t="s">
+      <c r="A123" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="B123" s="12"/>
-      <c r="C123" s="12"/>
-      <c r="D123" s="13"/>
+      <c r="B123" s="15"/>
+      <c r="C123" s="15"/>
+      <c r="D123" s="16"/>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
@@ -2427,12 +2385,12 @@
     <row r="131" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="133" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="134" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="11" t="s">
+      <c r="A134" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="B134" s="12"/>
-      <c r="C134" s="12"/>
-      <c r="D134" s="13"/>
+      <c r="B134" s="15"/>
+      <c r="C134" s="15"/>
+      <c r="D134" s="16"/>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
@@ -2534,12 +2492,12 @@
     </row>
     <row r="144" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="145" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="11" t="s">
+      <c r="A145" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="B145" s="12"/>
-      <c r="C145" s="12"/>
-      <c r="D145" s="13"/>
+      <c r="B145" s="15"/>
+      <c r="C145" s="15"/>
+      <c r="D145" s="16"/>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
@@ -2634,399 +2592,406 @@
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A153" s="14" t="s">
+      <c r="A153" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="B153" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C153" s="15" t="s">
+      <c r="B153" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C153" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="D153" s="16" t="s">
+      <c r="D153" s="5" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="154" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A154" s="6" t="s">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="B154" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C154" s="7" t="s">
+      <c r="B154" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C154" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="D154" s="8" t="s">
+      <c r="D154" s="5" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="155" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="157" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="158" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="11" t="s">
+    <row r="155" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A155" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="B155" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C155" s="7"/>
+      <c r="D155" s="8" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="158" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="159" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="B158" s="12"/>
-      <c r="C158" s="12"/>
-      <c r="D158" s="13"/>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A159" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B159" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C159" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D159" s="5" t="s">
-        <v>3</v>
-      </c>
+      <c r="B159" s="15"/>
+      <c r="C159" s="15"/>
+      <c r="D159" s="16"/>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="D160" s="5" t="s">
-        <v>71</v>
+        <v>3</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C161" s="4"/>
+        <v>14</v>
+      </c>
+      <c r="C161" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="D161" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B162" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C162" s="4"/>
       <c r="D162" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C163" s="4"/>
       <c r="D163" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="3" t="s">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C164" s="4" t="s">
-        <v>69</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="C164" s="4"/>
       <c r="D164" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B165" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C165" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D165" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A166" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="B165" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C165" s="4" t="s">
+      <c r="B166" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C166" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="D165" s="5" t="s">
+      <c r="D166" s="5" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="166" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A166" s="6" t="s">
+    <row r="167" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A167" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="B166" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C166" s="7" t="s">
+      <c r="B167" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C167" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="D166" s="8" t="s">
+      <c r="D167" s="8" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="167" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="169" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="170" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="11" t="s">
+    <row r="168" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="170" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="171" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A171" s="14" t="s">
         <v>173</v>
       </c>
-      <c r="B170" s="12"/>
-      <c r="C170" s="12"/>
-      <c r="D170" s="13"/>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A171" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B171" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C171" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D171" s="5" t="s">
-        <v>3</v>
-      </c>
+      <c r="B171" s="15"/>
+      <c r="C171" s="15"/>
+      <c r="D171" s="16"/>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="3" t="s">
-        <v>82</v>
+        <v>0</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="D172" s="5" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="3" t="s">
-        <v>156</v>
+        <v>82</v>
       </c>
       <c r="B173" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>171</v>
+        <v>19</v>
       </c>
       <c r="D173" s="5" t="s">
-        <v>174</v>
+        <v>86</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B174" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C174" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="D174" s="5" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A175" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B174" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C174" s="4" t="s">
+      <c r="B175" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C175" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="D174" s="5" t="s">
+      <c r="D175" s="5" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="175" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A175" s="6" t="s">
+    <row r="176" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A176" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="B175" s="7" t="s">
+      <c r="B176" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C175" s="7"/>
-      <c r="D175" s="8" t="s">
+      <c r="C176" s="7"/>
+      <c r="D176" s="8" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="176" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="17"/>
-      <c r="B176" s="18"/>
-      <c r="C176" s="18"/>
-      <c r="D176" s="19"/>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A177" s="17"/>
-      <c r="B177" s="18"/>
-      <c r="C177" s="18"/>
-      <c r="D177" s="19"/>
-    </row>
-    <row r="178" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A178" s="17"/>
-      <c r="B178" s="18"/>
-      <c r="C178" s="18"/>
-      <c r="D178" s="19"/>
-    </row>
-    <row r="179" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A179" s="11" t="s">
-        <v>175</v>
-      </c>
+    <row r="177" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A177" s="11"/>
+      <c r="B177" s="12"/>
+      <c r="C177" s="12"/>
+      <c r="D177" s="13"/>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A178" s="11"/>
+      <c r="B178" s="12"/>
+      <c r="C178" s="12"/>
+      <c r="D178" s="13"/>
+    </row>
+    <row r="179" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A179" s="11"/>
       <c r="B179" s="12"/>
       <c r="C179" s="12"/>
       <c r="D179" s="13"/>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A180" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B180" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C180" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D180" s="5" t="s">
-        <v>3</v>
-      </c>
+    <row r="180" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A180" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="B180" s="15"/>
+      <c r="C180" s="15"/>
+      <c r="D180" s="16"/>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="3" t="s">
-        <v>82</v>
+        <v>0</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="D181" s="5" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="3" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="B182" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C182" s="4" t="s">
-        <v>151</v>
+        <v>19</v>
       </c>
       <c r="D182" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B183" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C183" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D183" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A184" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B183" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C183" s="4" t="s">
+      <c r="B184" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C184" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="D183" s="5" t="s">
+      <c r="D184" s="5" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="184" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A184" s="6" t="s">
+    <row r="185" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A185" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="B184" s="7" t="s">
+      <c r="B185" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C184" s="7"/>
-      <c r="D184" s="8" t="s">
+      <c r="C185" s="7"/>
+      <c r="D185" s="8" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="185" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="187" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="188" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="11" t="s">
+    <row r="186" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="188" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="189" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A189" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="B188" s="12"/>
-      <c r="C188" s="12"/>
-      <c r="D188" s="13"/>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A189" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B189" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C189" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D189" s="5" t="s">
-        <v>3</v>
-      </c>
+      <c r="B189" s="15"/>
+      <c r="C189" s="15"/>
+      <c r="D189" s="16"/>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="3" t="s">
-        <v>152</v>
+        <v>0</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C190" s="4" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="D190" s="5" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B191" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C191" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D191" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A192" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="B191" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C191" s="4" t="s">
+      <c r="B192" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C192" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="D191" s="5" t="s">
+      <c r="D192" s="5" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="192" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A192" s="6" t="s">
+    <row r="193" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A193" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B192" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C192" s="7" t="s">
+      <c r="B193" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C193" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="D192" s="8" t="s">
+      <c r="D193" s="8" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="193" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="194" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="A58:D58"/>
     <mergeCell ref="A134:D134"/>
-    <mergeCell ref="A158:D158"/>
-    <mergeCell ref="A179:D179"/>
-    <mergeCell ref="A188:D188"/>
+    <mergeCell ref="A159:D159"/>
+    <mergeCell ref="A180:D180"/>
+    <mergeCell ref="A189:D189"/>
     <mergeCell ref="A70:D70"/>
     <mergeCell ref="A123:D123"/>
     <mergeCell ref="A115:D115"/>
@@ -3035,7 +3000,12 @@
     <mergeCell ref="A97:D97"/>
     <mergeCell ref="A106:D106"/>
     <mergeCell ref="A145:D145"/>
-    <mergeCell ref="A170:D170"/>
+    <mergeCell ref="A171:D171"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A58:D58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
